--- a/Project Proposal_1003061.xlsx
+++ b/Project Proposal_1003061.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Choo Jia Hui\Desktop\Term 6\Simulation modeling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kayes\Documents\Term 6\Supermarket-Simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9752546-6EE8-4291-850D-B415B166F6A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC1EF92-4B95-44D0-AB6D-DD2DC255BA5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="1" r:id="rId1"/>
@@ -1070,32 +1070,32 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:2" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:2" ht="25.5" x14ac:dyDescent="0.75">
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:2" ht="25.5" x14ac:dyDescent="0.75">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:2" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="3">
         <v>40.015000000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:2" ht="23.25" x14ac:dyDescent="0.7">
       <c r="B10" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="21" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:2" ht="21" x14ac:dyDescent="0.65">
       <c r="B11" s="4" t="s">
         <v>76</v>
       </c>
@@ -1115,84 +1115,84 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="2" width="9.21875" style="4"/>
-    <col min="3" max="3" width="226.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.21875" style="4"/>
+    <col min="1" max="2" width="9.19921875" style="4"/>
+    <col min="3" max="3" width="226.53125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.19921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.65">
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="42" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.65">
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.65">
       <c r="C4" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.65">
       <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.65">
       <c r="C6" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.65">
       <c r="C7" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.65">
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.65">
       <c r="C10" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.65">
       <c r="C11" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.65">
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.65">
       <c r="C13" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.65">
       <c r="C14" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.65">
       <c r="C15" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.65">
       <c r="C16" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.65">
       <c r="C17" s="6" t="s">
         <v>85</v>
       </c>
@@ -1211,19 +1211,19 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="3" width="9.21875" style="4"/>
-    <col min="4" max="4" width="139.77734375" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="4"/>
+    <col min="1" max="3" width="9.19921875" style="4"/>
+    <col min="4" max="4" width="139.796875" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.19921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B3" s="10">
         <v>1</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B4" s="10">
         <v>2</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="42" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" ht="42" x14ac:dyDescent="0.65">
       <c r="C5" s="10">
         <v>1</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="42" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.65">
       <c r="C6" s="10">
         <v>2</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.65">
       <c r="C7" s="10">
         <v>3</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="63" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:4" ht="63" x14ac:dyDescent="0.65">
       <c r="C8" s="10">
         <v>4</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="42" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:4" ht="42" x14ac:dyDescent="0.65">
       <c r="C9" s="10">
         <v>5</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="63" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:4" ht="63" x14ac:dyDescent="0.65">
       <c r="C10" s="10">
         <v>6</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="63" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:4" ht="63" x14ac:dyDescent="0.65">
       <c r="C11" s="10">
         <v>7</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.65">
       <c r="C12" s="10">
         <v>8</v>
       </c>
@@ -1317,19 +1317,19 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="2" width="9.21875" style="4"/>
-    <col min="3" max="3" width="131.44140625" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="9.21875" style="4"/>
+    <col min="1" max="2" width="9.19921875" style="4"/>
+    <col min="3" max="3" width="131.46484375" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="9.19921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.65">
       <c r="B2" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.65">
       <c r="B3" s="10">
         <v>1</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.65">
       <c r="B4" s="10">
         <v>2</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="42" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="10">
         <v>3</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="42" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:3" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="10">
         <v>4</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="63" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:3" ht="42" x14ac:dyDescent="0.65">
       <c r="B7" s="10">
         <v>5</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="63" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:3" ht="63" x14ac:dyDescent="0.65">
       <c r="B8" s="10">
         <v>6</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.65">
       <c r="B9" s="10">
         <v>7</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="63" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:3" ht="63" x14ac:dyDescent="0.65">
       <c r="B10" s="10">
         <v>8</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="42" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:3" ht="42" x14ac:dyDescent="0.65">
       <c r="B11" s="10">
         <v>9</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="42" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:3" ht="42" x14ac:dyDescent="0.65">
       <c r="B12" s="10">
         <v>10</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.65">
       <c r="B13" s="10">
         <v>11</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.65">
       <c r="B14" s="10">
         <v>12</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.65">
       <c r="B15" s="10">
         <v>13</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.65">
       <c r="B16" s="10">
         <v>14</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.65">
       <c r="B17" s="10">
         <v>15</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.65">
       <c r="B18" s="10">
         <v>16</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="42" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:3" ht="42" x14ac:dyDescent="0.65">
       <c r="B19" s="10">
         <v>17</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.65">
       <c r="B20" s="10">
         <v>18</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="63" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:3" ht="63" x14ac:dyDescent="0.65">
       <c r="B21" s="10">
         <v>19</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="63" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:3" ht="63" x14ac:dyDescent="0.65">
       <c r="B22" s="10">
         <v>20</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="42" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:3" ht="42" x14ac:dyDescent="0.65">
       <c r="B23" s="10">
         <v>21</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="84" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:3" ht="84" x14ac:dyDescent="0.65">
       <c r="B24" s="10">
         <v>22</v>
       </c>
@@ -1515,26 +1515,26 @@
   <sheetPr codeName="Folha5"/>
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:Q11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="69" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" style="12" customWidth="1"/>
-    <col min="3" max="6" width="11.21875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="20.21875" style="11" customWidth="1"/>
-    <col min="12" max="15" width="9.21875" style="11"/>
-    <col min="16" max="16" width="11.21875" style="11" customWidth="1"/>
-    <col min="17" max="16384" width="9.21875" style="11"/>
+    <col min="1" max="1" width="43.53125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="21.53125" style="12" customWidth="1"/>
+    <col min="3" max="6" width="11.19921875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="10.53125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="11.19921875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="13.19921875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="10.796875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="20.19921875" style="11" customWidth="1"/>
+    <col min="12" max="15" width="9.19921875" style="11"/>
+    <col min="16" max="16" width="11.19921875" style="11" customWidth="1"/>
+    <col min="17" max="16384" width="9.19921875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="19" t="s">
         <v>43</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="77.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="77.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="38" t="s">
         <v>103</v>
       </c>
@@ -1590,7 +1590,7 @@
       <c r="J2" s="45"/>
       <c r="K2" s="45"/>
     </row>
-    <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.45">
       <c r="A3" s="34"/>
       <c r="B3" s="35"/>
       <c r="C3" s="37"/>
@@ -1605,7 +1605,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.45">
       <c r="A4" s="34"/>
       <c r="B4" s="35"/>
       <c r="C4" s="37"/>
@@ -1617,10 +1617,10 @@
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
     </row>
-    <row r="5" spans="1:17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B5" s="33"/>
     </row>
-    <row r="6" spans="1:17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="39" t="s">
         <v>53</v>
       </c>
@@ -1643,7 +1643,7 @@
       <c r="P6" s="44"/>
       <c r="Q6" s="44"/>
     </row>
-    <row r="7" spans="1:17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="40"/>
       <c r="B7" s="50" t="s">
         <v>104</v>
@@ -1664,7 +1664,7 @@
       <c r="P7" s="44"/>
       <c r="Q7" s="44"/>
     </row>
-    <row r="8" spans="1:17" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="40"/>
       <c r="B8" s="50" t="s">
         <v>106</v>
@@ -1685,7 +1685,7 @@
       <c r="P8" s="44"/>
       <c r="Q8" s="44"/>
     </row>
-    <row r="9" spans="1:17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" s="40"/>
       <c r="B9" s="50" t="s">
         <v>105</v>
@@ -1706,7 +1706,7 @@
       <c r="P9" s="44"/>
       <c r="Q9" s="44"/>
     </row>
-    <row r="10" spans="1:17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10" s="40"/>
       <c r="B10" s="47"/>
       <c r="C10" s="48"/>
@@ -1725,7 +1725,7 @@
       <c r="P10" s="48"/>
       <c r="Q10" s="49"/>
     </row>
-    <row r="11" spans="1:17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11" s="40"/>
       <c r="B11" s="47"/>
       <c r="C11" s="48"/>
@@ -1744,7 +1744,7 @@
       <c r="P11" s="48"/>
       <c r="Q11" s="49"/>
     </row>
-    <row r="12" spans="1:17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12" s="40"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -1763,7 +1763,7 @@
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
     </row>
-    <row r="13" spans="1:17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="40"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -1782,7 +1782,7 @@
       <c r="P13" s="44"/>
       <c r="Q13" s="44"/>
     </row>
-    <row r="14" spans="1:17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A14" s="40"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
@@ -1801,7 +1801,7 @@
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
     </row>
-    <row r="15" spans="1:17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15" s="40"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -1820,7 +1820,7 @@
       <c r="P15" s="44"/>
       <c r="Q15" s="44"/>
     </row>
-    <row r="16" spans="1:17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" s="40"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -1839,7 +1839,7 @@
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
     </row>
-    <row r="17" spans="1:17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A17" s="40"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -1858,7 +1858,7 @@
       <c r="P17" s="44"/>
       <c r="Q17" s="44"/>
     </row>
-    <row r="18" spans="1:17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A18" s="41"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -1877,7 +1877,7 @@
       <c r="P18" s="44"/>
       <c r="Q18" s="44"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="C20" s="46" t="s">
         <v>98</v>
       </c>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="H20" s="46"/>
     </row>
-    <row r="21" spans="1:17" ht="36" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="36" x14ac:dyDescent="0.45">
       <c r="A21" s="17" t="s">
         <v>52</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="27" t="s">
         <v>54</v>
       </c>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="J22" s="22">
         <f>SUM(J23:J31)</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="K22" s="22"/>
       <c r="L22" s="30"/>
@@ -1990,7 +1990,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="31" customFormat="1" ht="82.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" s="31" customFormat="1" ht="82.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="27" t="s">
         <v>90</v>
       </c>
@@ -1998,13 +1998,13 @@
         <v>51</v>
       </c>
       <c r="C23" s="15">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D23" s="15">
         <v>0.1</v>
       </c>
       <c r="E23" s="15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F23" s="15">
         <v>0.1</v>
@@ -2036,7 +2036,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="31" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" s="31" customFormat="1" ht="36" x14ac:dyDescent="0.45">
       <c r="A24" s="27" t="s">
         <v>91</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="31" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" s="31" customFormat="1" ht="36" x14ac:dyDescent="0.45">
       <c r="A25" s="27" t="s">
         <v>60</v>
       </c>
@@ -2090,16 +2090,16 @@
         <v>55</v>
       </c>
       <c r="C25" s="15">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D25" s="15">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E25" s="15">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F25" s="15">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G25" s="23">
         <v>0</v>
@@ -2110,11 +2110,11 @@
       </c>
       <c r="I25" s="22">
         <f t="shared" ref="I25:I31" si="3">SUM(C25:F25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="22">
         <f t="shared" si="0"/>
-        <v>1.2500000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="K25" s="24" t="str">
         <f t="shared" si="1"/>
@@ -2129,7 +2129,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="31" customFormat="1" ht="79.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" s="31" customFormat="1" ht="79.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="27" t="s">
         <v>96</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="31" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" s="31" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="27" t="s">
         <v>59</v>
       </c>
@@ -2184,16 +2184,16 @@
         <v>86</v>
       </c>
       <c r="C27" s="15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D27" s="15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E27" s="15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F27" s="15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G27" s="23">
         <v>0</v>
@@ -2204,11 +2204,11 @@
       </c>
       <c r="I27" s="22">
         <f>SUM(C27:F27)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" s="22">
         <f t="shared" si="0"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="K27" s="24" t="s">
         <v>86</v>
@@ -2222,7 +2222,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="32" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" s="32" customFormat="1" ht="72" x14ac:dyDescent="0.45">
       <c r="A28" s="27" t="s">
         <v>58</v>
       </c>
@@ -2230,16 +2230,16 @@
         <v>57</v>
       </c>
       <c r="C28" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E28" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F28" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G28" s="23">
         <v>1</v>
@@ -2250,11 +2250,11 @@
       </c>
       <c r="I28" s="22">
         <f t="shared" ref="I28" si="4">SUM(C28:F28)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J28" s="22">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="K28" s="24" t="str">
         <f>B28</f>
@@ -2269,7 +2269,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="117.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="117.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="27" t="s">
         <v>94</v>
       </c>
@@ -2277,16 +2277,16 @@
         <v>93</v>
       </c>
       <c r="C29" s="15">
-        <v>11.3</v>
+        <v>11.15</v>
       </c>
       <c r="D29" s="15">
-        <v>11.4</v>
+        <v>11.15</v>
       </c>
       <c r="E29" s="15">
-        <v>11.4</v>
+        <v>11.05</v>
       </c>
       <c r="F29" s="15">
-        <v>11.4</v>
+        <v>11.15</v>
       </c>
       <c r="G29" s="23">
         <v>1</v>
@@ -2297,11 +2297,11 @@
       </c>
       <c r="I29" s="22">
         <f t="shared" si="3"/>
-        <v>45.5</v>
+        <v>44.5</v>
       </c>
       <c r="J29" s="22">
         <f>I29/$I$22</f>
-        <v>0.56874999999999998</v>
+        <v>0.55625000000000002</v>
       </c>
       <c r="K29" s="24" t="str">
         <f t="shared" si="1"/>
@@ -2316,7 +2316,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="72" x14ac:dyDescent="0.45">
       <c r="A30" s="27" t="s">
         <v>88</v>
       </c>
@@ -2324,16 +2324,16 @@
         <v>87</v>
       </c>
       <c r="C30" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="23">
         <v>1</v>
@@ -2344,11 +2344,11 @@
       </c>
       <c r="I30" s="22">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J30" s="22">
         <f>I30/$I$22</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K30" s="24" t="str">
         <f t="shared" si="1"/>
@@ -2363,7 +2363,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="155.55000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="155.55000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="27" t="s">
         <v>95</v>
       </c>
